--- a/outputs-Archaea/g__Methanobrevibacter_A.xlsx
+++ b/outputs-Archaea/g__Methanobrevibacter_A.xlsx
@@ -2565,7 +2565,7 @@
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>s__Methanobrevibacter_A sp900319535</t>
+          <t>s__Methanobrevibacter_A sp900319535(reject)</t>
         </is>
       </c>
     </row>
